--- a/students/shablon.xlsx
+++ b/students/shablon.xlsx
@@ -958,7 +958,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Т/р</t>
   </si>
@@ -1059,12 +1059,6 @@
   </si>
   <si>
     <t>Рақами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             </t>
-  </si>
-  <si>
-    <t>wq</t>
   </si>
   <si>
     <r>
@@ -1291,7 +1285,7 @@
     <numFmt numFmtId="178" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="179" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,18 +1486,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1669,9 +1651,9 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <sz val="24"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
     <font>
@@ -1683,16 +1665,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -2689,140 +2671,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3215,18 +3197,11 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="31" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3243,26 +3218,11 @@
     <xf numFmtId="3" fontId="29" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4663,15 +4623,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P$1:P$1048576"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="6.28703703703704" style="124" customWidth="1"/>
     <col min="2" max="2" width="21.8611111111111" style="68" customWidth="1"/>
@@ -4715,23 +4675,23 @@
         <v>6</v>
       </c>
       <c r="H1" s="128"/>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="138" t="s">
+      <c r="K1" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="139"/>
+      <c r="L1" s="136"/>
       <c r="M1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="137" t="s">
+      <c r="N1" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="137" t="s">
+      <c r="O1" s="134" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4748,561 +4708,34 @@
       <c r="H2" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
       <c r="K2" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="138" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="128"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
     </row>
-    <row r="3" ht="51" customHeight="1" spans="1:15">
+    <row r="3" ht="27.75" customHeight="1" spans="1:15">
       <c r="A3" s="131"/>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
       <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
       <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-    </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A4" s="131">
-        <v>1</v>
-      </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-    </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A5" s="131">
-        <v>2</v>
-      </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-    </row>
-    <row r="6" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A6" s="131">
-        <v>3</v>
-      </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A7" s="131">
-        <v>4</v>
-      </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-    </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A8" s="131">
-        <v>5</v>
-      </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-    </row>
-    <row r="9" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A9" s="131">
-        <v>6</v>
-      </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-    </row>
-    <row r="10" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A10" s="131">
-        <v>7</v>
-      </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A11" s="131">
-        <v>8</v>
-      </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-    </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A12" s="131">
-        <v>9</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-    </row>
-    <row r="13" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A13" s="131">
-        <v>10</v>
-      </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-    </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A14" s="131">
-        <v>11</v>
-      </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-    </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A15" s="131">
-        <v>12</v>
-      </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-    </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-    </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A17" s="131"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A18" s="131"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-    </row>
-    <row r="19" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A19" s="131"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-    </row>
-    <row r="21" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A21" s="131"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-    </row>
-    <row r="22" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A22" s="131"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-    </row>
-    <row r="23" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-    </row>
-    <row r="24" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-    </row>
-    <row r="25" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A25" s="131"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A26" s="131"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-    </row>
-    <row r="27" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A27" s="131"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-    </row>
-    <row r="28" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A28" s="131"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-    </row>
-    <row r="29" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A29" s="131"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-    </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A30" s="131"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-    </row>
-    <row r="31" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1" spans="1:15">
-      <c r="A32" s="131"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="124" t="s">
-        <v>15</v>
-      </c>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5354,7 +4787,7 @@
   <sheetData>
     <row r="1" ht="96.75" customHeight="1" spans="2:9">
       <c r="B1" s="71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
@@ -5376,28 +4809,28 @@
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="2:9">
       <c r="B3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="E3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="F3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="G3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="H3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="I3" s="114" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="114" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" ht="41.25" customHeight="1" spans="2:9">
@@ -5422,7 +4855,7 @@
     </row>
     <row r="6" ht="36" customHeight="1" spans="2:9">
       <c r="B6" s="86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="88">
@@ -5468,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="98">
         <v>39254</v>
@@ -5501,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="98">
         <v>68784</v>
@@ -5534,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="98">
         <v>38297</v>
@@ -5567,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="98">
         <v>31439</v>
@@ -5600,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="98">
         <v>73286</v>
@@ -5631,7 +5064,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="98">
         <v>21025</v>
@@ -5664,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="98">
         <v>61941</v>
@@ -5697,7 +5130,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="98">
         <v>88533</v>
@@ -5728,7 +5161,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="98">
         <v>62956</v>
@@ -5759,7 +5192,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="98">
         <v>17768</v>
@@ -5792,7 +5225,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="98">
         <v>57077</v>
@@ -5825,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="98">
         <v>78913</v>
@@ -5858,7 +5291,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="98">
         <v>39349</v>
@@ -5889,7 +5322,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="108">
         <v>54338</v>
@@ -5965,7 +5398,7 @@
   <sheetData>
     <row r="1" ht="69" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5999,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -6010,10 +5443,10 @@
       <c r="H3" s="10"/>
       <c r="I3" s="44"/>
       <c r="J3" s="45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L3" s="47"/>
     </row>
@@ -6022,22 +5455,22 @@
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="I4" s="48" t="s">
         <v>48</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>50</v>
       </c>
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
@@ -6045,7 +5478,7 @@
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="1:12">
       <c r="A5" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="e">
@@ -6091,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="23" t="e">
         <f>+#REF!</f>
@@ -6128,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="30" t="e">
         <f>+#REF!</f>
@@ -6165,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="30" t="e">
         <f>+#REF!</f>
@@ -6194,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="30" t="e">
         <f>+#REF!</f>
@@ -6227,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="30" t="e">
         <f>+#REF!</f>
@@ -6262,7 +5695,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="30" t="e">
         <f>+#REF!</f>
@@ -6295,7 +5728,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="30" t="e">
         <f>+#REF!</f>
@@ -6328,7 +5761,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="30" t="e">
         <f>+#REF!</f>
@@ -6363,7 +5796,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="30" t="e">
         <f>+#REF!</f>
@@ -6396,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="30" t="e">
         <f>+#REF!</f>
@@ -6431,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="30" t="e">
         <f>+#REF!</f>
@@ -6468,7 +5901,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="30" t="e">
         <f>+#REF!</f>
@@ -6505,7 +5938,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="30" t="e">
         <f>+#REF!</f>
@@ -6536,7 +5969,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="39" t="e">
         <f>+#REF!</f>

--- a/students/shablon.xlsx
+++ b/students/shablon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22400" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="ўқувчилар рўйхати" sheetId="5" r:id="rId1"/>
@@ -1032,27 +1032,7 @@
     <t>Телефон рақами</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Изоҳ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Боланинг ўз вақтида таълимга жалб этилмаганлик сабаби)</t>
-    </r>
+    <t>Синф</t>
   </si>
   <si>
     <t>Серия</t>
@@ -1277,15 +1257,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #\ ##0_ ;_ * \-#\ ##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="#\ ##0_ ;\-#\ ##0\ "/>
+    <numFmt numFmtId="181" formatCode="#\ ##0.0_ ;\-#\ ##0.0\ "/>
+    <numFmt numFmtId="182" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,6 +1625,13 @@
     </font>
     <font>
       <b/>
+      <sz val="24"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -1651,29 +1639,15 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="204"/>
     </font>
@@ -2659,16 +2633,16 @@
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3065,25 +3039,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3095,28 +3069,28 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="3" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="22" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3125,19 +3099,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="4" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="22" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="4" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3152,25 +3126,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3191,7 +3165,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="29" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3215,7 +3189,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="29" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3225,55 +3199,55 @@
     <xf numFmtId="58" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
     <cellStyle name="Обычный 17" xfId="49"/>
     <cellStyle name="Обычный 2" xfId="50"/>
     <cellStyle name="Обычный 2 5" xfId="51"/>
@@ -4628,27 +4602,27 @@
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="6.28703703703704" style="124" customWidth="1"/>
-    <col min="2" max="2" width="21.8611111111111" style="68" customWidth="1"/>
-    <col min="3" max="3" width="22.1388888888889" style="68" customWidth="1"/>
-    <col min="4" max="4" width="18.287037037037" style="68" customWidth="1"/>
-    <col min="5" max="5" width="38.712962962963" style="124" customWidth="1"/>
+    <col min="1" max="1" width="6.29090909090909" style="124" customWidth="1"/>
+    <col min="2" max="2" width="21.8636363636364" style="68" customWidth="1"/>
+    <col min="3" max="3" width="22.1363636363636" style="68" customWidth="1"/>
+    <col min="4" max="4" width="18.2909090909091" style="68" customWidth="1"/>
+    <col min="5" max="5" width="38.7090909090909" style="124" customWidth="1"/>
     <col min="6" max="6" width="22" style="68" customWidth="1"/>
-    <col min="7" max="7" width="12.287037037037" style="124" customWidth="1"/>
-    <col min="8" max="8" width="15.712962962963" style="124" customWidth="1"/>
-    <col min="9" max="9" width="21.4259259259259" style="125" customWidth="1"/>
-    <col min="10" max="10" width="32.712962962963" style="126" customWidth="1"/>
-    <col min="11" max="11" width="11.4259259259259" style="68" customWidth="1"/>
-    <col min="12" max="12" width="13.287037037037" style="126" customWidth="1"/>
-    <col min="13" max="13" width="20.712962962963" style="68" customWidth="1"/>
-    <col min="14" max="14" width="16.1388888888889" style="68" customWidth="1"/>
-    <col min="15" max="15" width="33.8611111111111" style="68" customWidth="1"/>
-    <col min="16" max="16380" width="9.13888888888889" style="68"/>
+    <col min="7" max="7" width="12.2909090909091" style="124" customWidth="1"/>
+    <col min="8" max="8" width="15.7090909090909" style="124" customWidth="1"/>
+    <col min="9" max="9" width="21.4272727272727" style="125" customWidth="1"/>
+    <col min="10" max="10" width="32.7090909090909" style="126" customWidth="1"/>
+    <col min="11" max="11" width="11.4272727272727" style="68" customWidth="1"/>
+    <col min="12" max="12" width="13.2909090909091" style="126" customWidth="1"/>
+    <col min="13" max="13" width="20.7090909090909" style="68" customWidth="1"/>
+    <col min="14" max="14" width="16.1363636363636" style="68" customWidth="1"/>
+    <col min="15" max="15" width="33.8636363636364" style="68" customWidth="1"/>
+    <col min="16" max="16380" width="9.13636363636364" style="68"/>
     <col min="16381" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
@@ -4770,19 +4744,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="68"/>
-    <col min="2" max="2" width="12.8611111111111" style="69" customWidth="1"/>
-    <col min="3" max="3" width="42.4259259259259" style="70" customWidth="1"/>
-    <col min="4" max="4" width="29.8611111111111" style="70" customWidth="1"/>
-    <col min="5" max="5" width="38.5740740740741" style="70" customWidth="1"/>
-    <col min="6" max="6" width="23.287037037037" style="70" customWidth="1"/>
+    <col min="1" max="1" width="9.13636363636364" style="68"/>
+    <col min="2" max="2" width="12.8636363636364" style="69" customWidth="1"/>
+    <col min="3" max="3" width="42.4272727272727" style="70" customWidth="1"/>
+    <col min="4" max="4" width="29.8636363636364" style="70" customWidth="1"/>
+    <col min="5" max="5" width="38.5727272727273" style="70" customWidth="1"/>
+    <col min="6" max="6" width="23.2909090909091" style="70" customWidth="1"/>
     <col min="7" max="7" width="35" style="70" customWidth="1"/>
-    <col min="8" max="8" width="30.4259259259259" style="70" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="49.5740740740741" style="70" customWidth="1"/>
-    <col min="10" max="10" width="23.1388888888889" style="68" customWidth="1"/>
-    <col min="11" max="16384" width="9.13888888888889" style="68"/>
+    <col min="8" max="8" width="30.4272727272727" style="70" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="49.5727272727273" style="70" customWidth="1"/>
+    <col min="10" max="10" width="23.1363636363636" style="68" customWidth="1"/>
+    <col min="11" max="16384" width="9.13636363636364" style="68"/>
   </cols>
   <sheetData>
     <row r="1" ht="96.75" customHeight="1" spans="2:9">
@@ -5381,19 +5355,19 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.28703703703704" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.4259259259259" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.712962962963" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.5740740740741" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.8611111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.29090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.4272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.7090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.8636363636364" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.1388888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.287037037037" customWidth="1"/>
+    <col min="7" max="8" width="17.1363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.2909090909091" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18.287037037037" customWidth="1"/>
-    <col min="12" max="12" width="20.712962962963" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.2909090909091" customWidth="1"/>
+    <col min="12" max="12" width="20.7090909090909" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="69" customHeight="1" spans="1:11">
